--- a/archived_data/weekly_data_05_30.xlsx
+++ b/archived_data/weekly_data_05_30.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rboehm/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{840AD539-3505-D747-8E06-D6C3DE6FC44D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC6FC77-12CE-3C4F-BF1E-C87281A9231D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="33600" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SG Data" sheetId="1" r:id="rId1"/>
     <sheet name="SG Figures" sheetId="2" r:id="rId2"/>
     <sheet name="Backbone" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -214,15 +222,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,15 +235,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -285,13 +291,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -310,6 +309,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -323,7 +337,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -340,37 +354,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -378,28 +370,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Comma [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Currency [0]" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Heading 1" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+  <cellStyles count="3">
+    <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -419,13 +412,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>422370</xdr:colOff>
+      <xdr:colOff>693652</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>181357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>514228</xdr:colOff>
+      <xdr:colOff>242946</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>161653</xdr:rowOff>
     </xdr:to>
@@ -434,7 +427,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB2A3F25-00C8-2D4C-827E-89468B592985}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -450,21 +443,17 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="371475"/>
-          <a:ext cx="13211175" cy="10839450"/>
+          <a:off x="693652" y="371857"/>
+          <a:ext cx="13582794" cy="10838796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -472,22 +461,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>507999</xdr:colOff>
+      <xdr:colOff>195345</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>182554</xdr:rowOff>
+      <xdr:rowOff>169854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>613615</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>583369</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>173407</xdr:rowOff>
+      <xdr:rowOff>160707</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02387F4C-BC23-854B-99EC-4B91008776A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -503,21 +492,17 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13620750" y="371475"/>
-          <a:ext cx="13220700" cy="10848975"/>
+          <a:off x="14228845" y="360354"/>
+          <a:ext cx="13596024" cy="10849353"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -525,22 +510,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>450095</xdr:colOff>
+      <xdr:colOff>739885</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>129943</xdr:rowOff>
+      <xdr:rowOff>142643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>363441</xdr:colOff>
+      <xdr:colOff>99051</xdr:colOff>
       <xdr:row>114</xdr:row>
-      <xdr:rowOff>163761</xdr:rowOff>
+      <xdr:rowOff>176461</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5847F336-E13D-9C43-A9BA-2AFEDED5F652}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -556,21 +541,17 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="447675" y="11182350"/>
-          <a:ext cx="13030200" cy="10706100"/>
+          <a:off x="739885" y="11191643"/>
+          <a:ext cx="13392666" cy="10701818"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -867,25 +848,25 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E25" sqref="E25"/>
+      <selection pane="topRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="34.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="28.83203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="31.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="30.1640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="29.33203125" style="4" customWidth="1"/>
-    <col min="10" max="13" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31" style="3" customWidth="1"/>
+    <col min="5" max="5" width="29" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" style="3" customWidth="1"/>
+    <col min="10" max="13" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -918,92 +899,92 @@
       <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="12">
-        <v>16.138937454109701</v>
+        <v>9.0849874673283288</v>
       </c>
       <c r="C2" s="12">
-        <v>1.1919409260806131</v>
+        <v>-6.1612846731280611</v>
       </c>
       <c r="D2" s="12">
-        <v>30.004577626456818</v>
+        <v>26.239102721234101</v>
       </c>
       <c r="E2" s="12">
-        <v>-1.4040437393004039</v>
+        <v>-2.8148695343838388</v>
       </c>
       <c r="F2" s="12">
-        <v>96.966852614049827</v>
+        <v>97.875592684350124</v>
       </c>
       <c r="G2" s="12">
-        <v>2.8523838688913838</v>
+        <v>2.0344523408825701</v>
       </c>
       <c r="H2" s="12">
-        <v>0.16064598034197261</v>
+        <v>8.7759111731737963E-2</v>
       </c>
       <c r="I2" s="12">
-        <v>2.2992815921279271E-2</v>
-      </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+        <v>3.318232241504506E-3</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="12">
-        <v>10.87189129397489</v>
+        <v>8.3765883959457081</v>
       </c>
       <c r="C3" s="12">
-        <v>2.6830731623171009</v>
+        <v>-2.3109024521061929</v>
       </c>
       <c r="D3" s="12">
-        <v>18.962762379265978</v>
+        <v>17.852251747331259</v>
       </c>
       <c r="E3" s="12">
-        <v>-7.1049487563071372</v>
+        <v>-0.93324008228926103</v>
       </c>
       <c r="F3" s="12">
-        <v>98.059161348641638</v>
+        <v>98.964420745628246</v>
       </c>
       <c r="G3" s="12">
-        <v>1.768514964315486</v>
+        <v>0.95256993963411962</v>
       </c>
       <c r="H3" s="12">
-        <v>0.1223847935336267</v>
+        <v>6.3044274735067601E-2</v>
       </c>
       <c r="I3" s="12">
-        <v>8.1800816448542368E-2</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+        <v>5.1802092842451949E-2</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="12">
-        <v>31.121832310094671</v>
+        <v>18.34902371732532</v>
       </c>
       <c r="C4" s="12">
-        <v>7.8986944698990369</v>
+        <v>-9.7411761014462357</v>
       </c>
       <c r="D4" s="12">
-        <v>27.647615491066819</v>
+        <v>26.04313118015957</v>
       </c>
       <c r="E4" s="12">
-        <v>2.3581724555697741</v>
+        <v>-1.256963794219512</v>
       </c>
       <c r="F4" s="12">
-        <v>99.76303317535546</v>
+        <v>99.78936282253818</v>
       </c>
       <c r="G4" s="12">
-        <v>0.23696682464454979</v>
+        <v>0.21063717746182201</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -1011,461 +992,461 @@
       <c r="I4" s="12">
         <v>0</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="12">
-        <v>12.247133249257811</v>
+        <v>6.1239401378983418</v>
       </c>
       <c r="C5" s="12">
-        <v>0.38529364349941209</v>
+        <v>-5.9528225742480068</v>
       </c>
       <c r="D5" s="12">
-        <v>36.718044130625053</v>
+        <v>26.117619248611309</v>
       </c>
       <c r="E5" s="12">
-        <v>4.0517634947461092</v>
+        <v>-7.5932531549348488</v>
       </c>
       <c r="F5" s="12">
-        <v>98.199955989785053</v>
+        <v>99.427916647901014</v>
       </c>
       <c r="G5" s="12">
-        <v>1.6780827669035541</v>
+        <v>0.51118763707142856</v>
       </c>
       <c r="H5" s="12">
-        <v>0.10736755367836411</v>
+        <v>6.0895715027452071E-2</v>
       </c>
       <c r="I5" s="12">
-        <v>1.459368963296845E-2</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="12">
-        <v>10.961312273135</v>
+        <v>7.5760660107040394</v>
       </c>
       <c r="C6" s="12">
-        <v>-1.553701276126302</v>
+        <v>-4.1076493039035942</v>
       </c>
       <c r="D6" s="12">
-        <v>19.893317414187759</v>
+        <v>14.76149787273935</v>
       </c>
       <c r="E6" s="12">
-        <v>-2.504666705461617</v>
+        <v>-1.3111470177031359</v>
       </c>
       <c r="F6" s="12">
-        <v>98.589861330554513</v>
+        <v>98.805610522515281</v>
       </c>
       <c r="G6" s="12">
-        <v>1.161708986274536</v>
+        <v>0.97028088764104492</v>
       </c>
       <c r="H6" s="12">
-        <v>0.24842968317040631</v>
+        <v>0.22410858984313861</v>
       </c>
       <c r="I6" s="12">
         <v>0</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="12">
-        <v>19.538437191556842</v>
+        <v>12.566047509874791</v>
       </c>
       <c r="C7" s="12">
-        <v>1.1949121457623411</v>
+        <v>-5.8878587094173636</v>
       </c>
       <c r="D7" s="12">
-        <v>38.157272253133677</v>
+        <v>34.575827819120278</v>
       </c>
       <c r="E7" s="12">
-        <v>-0.16065997025110371</v>
+        <v>-2.6058056876874449</v>
       </c>
       <c r="F7" s="12">
-        <v>91.706297399997098</v>
+        <v>93.219770266766545</v>
       </c>
       <c r="G7" s="12">
-        <v>8.1541574081355712</v>
+        <v>6.7366636873176979</v>
       </c>
       <c r="H7" s="12">
-        <v>0.1081644261157664</v>
+        <v>4.0405496937968258E-2</v>
       </c>
       <c r="I7" s="12">
-        <v>3.0531963723159999E-2</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+        <v>3.1605489773390682E-3</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="12">
-        <v>3.782320026016246</v>
+        <v>1.075094681077877</v>
       </c>
       <c r="C8" s="12">
-        <v>-1.9788113462751</v>
+        <v>-2.5886794601339842</v>
       </c>
       <c r="D8" s="12">
-        <v>26.56975097325957</v>
+        <v>24.137937534863958</v>
       </c>
       <c r="E8" s="12">
-        <v>-2.511656048694213</v>
+        <v>-1.9217201621075179</v>
       </c>
       <c r="F8" s="12">
-        <v>95.257995608042251</v>
+        <v>96.030878401208071</v>
       </c>
       <c r="G8" s="12">
-        <v>4.7222427530020887</v>
+        <v>3.9556192533405059</v>
       </c>
       <c r="H8" s="12">
-        <v>1.9761638954734189E-2</v>
+        <v>1.3502345450510879E-2</v>
       </c>
       <c r="I8" s="12">
         <v>0</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="12">
-        <v>22.961720798840229</v>
+        <v>16.74366796147125</v>
       </c>
       <c r="C9" s="12">
-        <v>-0.65152615272068737</v>
+        <v>-5.0801058133070773</v>
       </c>
       <c r="D9" s="12">
-        <v>37.674736684856398</v>
+        <v>36.342501625434508</v>
       </c>
       <c r="E9" s="12">
-        <v>-2.970303524209188</v>
+        <v>-2.5105795525642418</v>
       </c>
       <c r="F9" s="12">
-        <v>96.017629929885743</v>
+        <v>97.388598435568937</v>
       </c>
       <c r="G9" s="12">
-        <v>3.5673789811225469</v>
+        <v>2.3030759215588148</v>
       </c>
       <c r="H9" s="12">
-        <v>0.40108337890910167</v>
+        <v>0.3083256428710392</v>
       </c>
       <c r="I9" s="12">
-        <v>2.905604624565538E-2</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="12">
-        <v>14.984200759350699</v>
+        <v>7.9784506742562691</v>
       </c>
       <c r="C10" s="12">
-        <v>4.1094829220982492</v>
+        <v>-6.1617632127347228</v>
       </c>
       <c r="D10" s="12">
-        <v>35.842933445646601</v>
+        <v>32.097500952247451</v>
       </c>
       <c r="E10" s="12">
-        <v>0.51848744548334014</v>
+        <v>-2.782433454187883</v>
       </c>
       <c r="F10" s="12">
-        <v>98.277443279237161</v>
+        <v>99.032095973870213</v>
       </c>
       <c r="G10" s="12">
-        <v>1.6866701224127421</v>
+        <v>0.96790402612891513</v>
       </c>
       <c r="H10" s="12">
-        <v>3.5886598348354837E-2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="12">
         <v>0</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="12">
-        <v>2.6527219116534</v>
+        <v>-2.1767205561608498</v>
       </c>
       <c r="C11" s="12">
-        <v>1.8976999999999999</v>
+        <v>-4.7046000000000001</v>
       </c>
       <c r="D11" s="12">
-        <v>35.006100622886201</v>
+        <v>31.976929513423801</v>
       </c>
       <c r="E11" s="12">
-        <v>2.1499999999999998E-2</v>
+        <v>-2.2437</v>
       </c>
       <c r="F11" s="12">
-        <v>97.069903725407997</v>
+        <v>97.036727879799002</v>
       </c>
       <c r="G11" s="12">
-        <v>2.888237756383</v>
+        <v>2.9632721202000001</v>
       </c>
       <c r="H11" s="12">
-        <v>4.1858518208000003E-2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="12">
         <v>0</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="12">
-        <v>13.21454628685686</v>
+        <v>10.958208636308139</v>
       </c>
       <c r="C12" s="12">
-        <v>1.1439568597011021</v>
+        <v>-1.985923166275134</v>
       </c>
       <c r="D12" s="12">
-        <v>22.540940104548032</v>
+        <v>21.328613172794871</v>
       </c>
       <c r="E12" s="12">
-        <v>-1.008995248820413</v>
+        <v>-0.99129614001603061</v>
       </c>
       <c r="F12" s="12">
-        <v>98.146098238887291</v>
+        <v>98.691741782366805</v>
       </c>
       <c r="G12" s="12">
-        <v>1.692644511347807</v>
+        <v>1.217318070047321</v>
       </c>
       <c r="H12" s="12">
-        <v>0.1585200074023507</v>
+        <v>9.0940147585274786E-2</v>
       </c>
       <c r="I12" s="12">
-        <v>7.6498756382994519E-3</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
+        <v>1.633229371573567E-3</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="12">
-        <v>10.330832908881931</v>
+        <v>6.3401656820365977</v>
       </c>
       <c r="C13" s="12">
-        <v>3.1827010724098148</v>
+        <v>-3.6071664550330889</v>
       </c>
       <c r="D13" s="12">
-        <v>25.875261281922771</v>
+        <v>23.14144877510142</v>
       </c>
       <c r="E13" s="12">
-        <v>-0.79550925434698916</v>
+        <v>-2.1740906871437469</v>
       </c>
       <c r="F13" s="12">
-        <v>97.961203983562683</v>
+        <v>98.339247771968502</v>
       </c>
       <c r="G13" s="12">
-        <v>1.9835021242272779</v>
+        <v>1.645763319440819</v>
       </c>
       <c r="H13" s="12">
-        <v>5.1694281633324859E-2</v>
+        <v>1.4988908589885301E-2</v>
       </c>
       <c r="I13" s="12">
-        <v>3.599610575937693E-3</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="12">
-        <v>37.103204493041318</v>
+        <v>22.673210025686849</v>
       </c>
       <c r="C14" s="12">
-        <v>7.9646588196427004</v>
+        <v>-10.5249140752847</v>
       </c>
       <c r="D14" s="12">
-        <v>19.739825404375821</v>
+        <v>16.131109168437249</v>
       </c>
       <c r="E14" s="12">
-        <v>1.3920973170390649</v>
+        <v>-3.013797810170094</v>
       </c>
       <c r="F14" s="12">
-        <v>94.675070636818077</v>
+        <v>97.730711043872915</v>
       </c>
       <c r="G14" s="12">
-        <v>3.9556618126494238</v>
+        <v>2.1396153014912471</v>
       </c>
       <c r="H14" s="12">
-        <v>0.73896978917626599</v>
+        <v>0.12967365463583319</v>
       </c>
       <c r="I14" s="12">
-        <v>0.63029776135622695</v>
-      </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="12">
-        <v>8.9385848664503342</v>
+        <v>1.146925407718135</v>
       </c>
       <c r="C15" s="12">
-        <v>0.16248743262251389</v>
+        <v>-7.218227402869112</v>
       </c>
       <c r="D15" s="12">
-        <v>30.592374466914141</v>
+        <v>22.561634415245539</v>
       </c>
       <c r="E15" s="12">
-        <v>-0.54702299289831435</v>
+        <v>-6.0937479781614874</v>
       </c>
       <c r="F15" s="12">
-        <v>99.557944858413961</v>
+        <v>99.776476951483957</v>
       </c>
       <c r="G15" s="12">
-        <v>0.39148479550782461</v>
+        <v>0.19809870817293929</v>
       </c>
       <c r="H15" s="12">
-        <v>5.0570346078220273E-2</v>
+        <v>2.542434034309253E-2</v>
       </c>
       <c r="I15" s="12">
         <v>0</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="12">
-        <v>14.435542379113819</v>
+        <v>4.1547611494038996</v>
       </c>
       <c r="C16" s="12">
-        <v>3.32127385822846</v>
+        <v>-8.9948666942479214</v>
       </c>
       <c r="D16" s="12">
-        <v>35.970247472583019</v>
+        <v>30.00727546175786</v>
       </c>
       <c r="E16" s="12">
-        <v>-1.226300944924662</v>
+        <v>-4.3857820675546577</v>
       </c>
       <c r="F16" s="12">
-        <v>96.657128184087298</v>
+        <v>97.866763914813035</v>
       </c>
       <c r="G16" s="12">
-        <v>3.3305016105038558</v>
+        <v>2.123971390789023</v>
       </c>
       <c r="H16" s="12">
-        <v>1.2370205407999491E-2</v>
+        <v>9.2646943970985194E-3</v>
       </c>
       <c r="I16" s="12">
         <v>0</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="12">
-        <v>11.99240349473847</v>
+        <v>0.27665785776277141</v>
       </c>
       <c r="C17" s="12">
-        <v>2.4625067427943148</v>
+        <v>-10.449546221776821</v>
       </c>
       <c r="D17" s="12">
-        <v>26.40150769602695</v>
+        <v>19.499192069545892</v>
       </c>
       <c r="E17" s="12">
-        <v>-2.2052058119433169</v>
+        <v>-5.4664759317456308</v>
       </c>
       <c r="F17" s="12">
-        <v>98.580361418285719</v>
+        <v>99.39217815777215</v>
       </c>
       <c r="G17" s="12">
-        <v>1.322241166214432</v>
+        <v>0.57154832857902238</v>
       </c>
       <c r="H17" s="12">
-        <v>7.9208342777003962E-2</v>
+        <v>3.0227928040077921E-2</v>
       </c>
       <c r="I17" s="12">
-        <v>1.818907272212706E-2</v>
-      </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+        <v>6.0455856080155841E-3</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="12">
-        <v>12.64290302671764</v>
+        <v>4.3603130828917847</v>
       </c>
       <c r="C18" s="12">
-        <v>-1.032112626925904</v>
+        <v>-7.3573296171799063</v>
       </c>
       <c r="D18" s="12">
-        <v>29.38170726499385</v>
+        <v>25.788053615031281</v>
       </c>
       <c r="E18" s="12">
-        <v>-1.892881519827823</v>
+        <v>-2.7730079057170758</v>
       </c>
       <c r="F18" s="12">
-        <v>99.953859952249402</v>
+        <v>99.984681060866762</v>
       </c>
       <c r="G18" s="12">
-        <v>4.6140047750582627E-2</v>
+        <v>1.531893913323997E-2</v>
       </c>
       <c r="H18" s="12">
         <v>0</v>
@@ -1473,131 +1454,131 @@
       <c r="I18" s="12">
         <v>0</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="12">
-        <v>11.44208596911569</v>
+        <v>7.9256196819512166</v>
       </c>
       <c r="C19" s="12">
-        <v>-2.827016671301243</v>
+        <v>-3.382450607784258</v>
       </c>
       <c r="D19" s="12">
-        <v>26.469091255186719</v>
+        <v>25.817704659510021</v>
       </c>
       <c r="E19" s="12">
-        <v>-3.751029684728425</v>
+        <v>-0.74394990813492845</v>
       </c>
       <c r="F19" s="12">
-        <v>99.610089913561239</v>
+        <v>99.654416378214833</v>
       </c>
       <c r="G19" s="12">
-        <v>0.34829836025432498</v>
+        <v>0.32350246245046499</v>
       </c>
       <c r="H19" s="12">
-        <v>4.1611726184438778E-2</v>
+        <v>2.2081159334692659E-2</v>
       </c>
       <c r="I19" s="12">
         <v>0</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="12">
-        <v>18.109767653654071</v>
+        <v>5.175061464789696</v>
       </c>
       <c r="C20" s="12">
-        <v>2.6247152957819351</v>
+        <v>-10.97740985233334</v>
       </c>
       <c r="D20" s="12">
-        <v>21.839964409513911</v>
+        <v>14.603765312093911</v>
       </c>
       <c r="E20" s="12">
-        <v>-2.3864670196679931</v>
+        <v>-5.9702235419240823</v>
       </c>
       <c r="F20" s="12">
-        <v>97.568371507821027</v>
+        <v>98.991330773014624</v>
       </c>
       <c r="G20" s="12">
-        <v>2.098204965062298</v>
+        <v>0.986467658737742</v>
       </c>
       <c r="H20" s="12">
-        <v>0.20019979123940479</v>
+        <v>2.2201568247568439E-2</v>
       </c>
       <c r="I20" s="12">
-        <v>0.1332237358771112</v>
-      </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="12">
-        <v>16.57795284938269</v>
+        <v>13.9851685241029</v>
       </c>
       <c r="C21" s="12">
-        <v>-0.6835007081470994</v>
+        <v>-2.797224779868587</v>
       </c>
       <c r="D21" s="12">
-        <v>18.29412831624429</v>
+        <v>16.279457833857421</v>
       </c>
       <c r="E21" s="12">
-        <v>-0.81770667629752958</v>
+        <v>-1.1785510929259631</v>
       </c>
       <c r="F21" s="12">
-        <v>99.128470575553052</v>
+        <v>99.334212023756777</v>
       </c>
       <c r="G21" s="12">
-        <v>0.76886398730978001</v>
+        <v>0.60552691306088802</v>
       </c>
       <c r="H21" s="12">
-        <v>0.102665437137013</v>
+        <v>6.0261063182192681E-2</v>
       </c>
       <c r="I21" s="12">
         <v>0</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="12">
-        <v>17.490617309723891</v>
+        <v>11.769720184278651</v>
       </c>
       <c r="C22" s="12">
-        <v>-0.76883501797487241</v>
+        <v>-4.8692044591495049</v>
       </c>
       <c r="D22" s="12">
-        <v>42.570685620017713</v>
+        <v>40.418364165416627</v>
       </c>
       <c r="E22" s="12">
-        <v>-1.6512917431456779</v>
+        <v>-1.499364735486584</v>
       </c>
       <c r="F22" s="12">
-        <v>99.622839420854021</v>
+        <v>99.638634840659947</v>
       </c>
       <c r="G22" s="12">
-        <v>0.37716057914597362</v>
+        <v>0.36136515933998198</v>
       </c>
       <c r="H22" s="12">
         <v>0</v>
@@ -1605,263 +1586,263 @@
       <c r="I22" s="12">
         <v>0</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="12">
-        <v>13.509503864901941</v>
+        <v>7.8202970607768361</v>
       </c>
       <c r="C23" s="12">
-        <v>2.9917909953636652</v>
+        <v>-5.0121235241682784</v>
       </c>
       <c r="D23" s="12">
-        <v>33.342040133829528</v>
+        <v>31.149082447141449</v>
       </c>
       <c r="E23" s="12">
-        <v>-0.31599592599131859</v>
+        <v>-1.644522937138378</v>
       </c>
       <c r="F23" s="12">
-        <v>98.029578581692022</v>
+        <v>98.409051217824313</v>
       </c>
       <c r="G23" s="12">
-        <v>1.9507347511489119</v>
+        <v>1.5844285002804199</v>
       </c>
       <c r="H23" s="12">
-        <v>1.9686667157064099E-2</v>
+        <v>6.5202818932620279E-3</v>
       </c>
       <c r="I23" s="12">
         <v>0</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="12">
-        <v>20.844824578627978</v>
+        <v>14.9454424647544</v>
       </c>
       <c r="C24" s="12">
-        <v>-0.35054063262382268</v>
+        <v>-4.86237255442032</v>
       </c>
       <c r="D24" s="12">
-        <v>36.999500371436973</v>
+        <v>33.837108608190853</v>
       </c>
       <c r="E24" s="12">
-        <v>-2.5578280261942461</v>
+        <v>-2.3097505796956481</v>
       </c>
       <c r="F24" s="12">
-        <v>97.398645747779682</v>
+        <v>98.225551185338787</v>
       </c>
       <c r="G24" s="12">
-        <v>2.3708715185887321</v>
+        <v>1.5854009855594351</v>
       </c>
       <c r="H24" s="12">
-        <v>0.22005470484931941</v>
+        <v>0.18904782910000001</v>
       </c>
       <c r="I24" s="12">
-        <v>1.43832490839723E-2</v>
-      </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+        <v>3.9384964392857142E-3</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="12">
-        <v>17.991148734192851</v>
+        <v>6.3133325728598946</v>
       </c>
       <c r="C25" s="12">
-        <v>1.14769547353028</v>
+        <v>-9.8979141526623859</v>
       </c>
       <c r="D25" s="12">
-        <v>31.351287912841219</v>
+        <v>24.70714072825788</v>
       </c>
       <c r="E25" s="12">
-        <v>-2.5211880100468149</v>
+        <v>-5.0617323536597381</v>
       </c>
       <c r="F25" s="12">
-        <v>98.317046232324287</v>
+        <v>99.230998639767208</v>
       </c>
       <c r="G25" s="12">
-        <v>1.5965934420611569</v>
+        <v>0.73628113600638767</v>
       </c>
       <c r="H25" s="12">
-        <v>6.8531239672276159E-2</v>
+        <v>3.2720224225028613E-2</v>
       </c>
       <c r="I25" s="12">
-        <v>1.782908594160015E-2</v>
-      </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="12">
-        <v>16.96213024502654</v>
+        <v>10.452024725551549</v>
       </c>
       <c r="C26" s="12">
-        <v>-0.42645493264954132</v>
+        <v>-5.7848844124225272</v>
       </c>
       <c r="D26" s="12">
-        <v>32.82586616984203</v>
+        <v>30.325217010678919</v>
       </c>
       <c r="E26" s="12">
-        <v>-3.1707683249268408</v>
+        <v>-2.065869371908069</v>
       </c>
       <c r="F26" s="12">
-        <v>98.252164164227594</v>
+        <v>98.729831649120854</v>
       </c>
       <c r="G26" s="12">
-        <v>1.603080969432348</v>
+        <v>1.2055843441349401</v>
       </c>
       <c r="H26" s="12">
-        <v>0.14475486633938389</v>
+        <v>6.4584006743516081E-2</v>
       </c>
       <c r="I26" s="12">
         <v>0</v>
       </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="12">
-        <v>15.848814918295171</v>
+        <v>12.291290701849171</v>
       </c>
       <c r="C27" s="12">
-        <v>0.77094624237865084</v>
+        <v>-3.104661200984753</v>
       </c>
       <c r="D27" s="12">
-        <v>23.26259666529689</v>
+        <v>21.677362215649989</v>
       </c>
       <c r="E27" s="12">
-        <v>-1.3184177806669399</v>
+        <v>-0.72099901930541777</v>
       </c>
       <c r="F27" s="12">
-        <v>99.186330549524442</v>
+        <v>99.28570026460099</v>
       </c>
       <c r="G27" s="12">
-        <v>0.75348131642682992</v>
+        <v>0.65416027125168696</v>
       </c>
       <c r="H27" s="12">
-        <v>3.9440675402263897E-2</v>
+        <v>3.938631722675584E-2</v>
       </c>
       <c r="I27" s="12">
-        <v>4.0467796346855031E-2</v>
-      </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
+        <v>4.0446305532948687E-2</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="12">
-        <v>14.46102704885039</v>
+        <v>9.0583415174165864</v>
       </c>
       <c r="C28" s="12">
-        <v>-1.191907835147209</v>
+        <v>-4.8574376528646104</v>
       </c>
       <c r="D28" s="12">
-        <v>26.925888682859661</v>
+        <v>25.16129462678964</v>
       </c>
       <c r="E28" s="12">
-        <v>-3.697913872485028</v>
+        <v>-0.99924432579402866</v>
       </c>
       <c r="F28" s="12">
-        <v>97.839731256552412</v>
+        <v>98.362437500142917</v>
       </c>
       <c r="G28" s="12">
-        <v>2.127086588550823</v>
+        <v>1.6287073828059759</v>
       </c>
       <c r="H28" s="12">
-        <v>2.4933073721299218E-2</v>
+        <v>8.855117051024158E-3</v>
       </c>
       <c r="I28" s="12">
-        <v>8.2490811753597806E-3</v>
-      </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="12">
-        <v>11.175416496825431</v>
+        <v>0.2108819505330706</v>
       </c>
       <c r="C29" s="12">
-        <v>-3.4705550848888378</v>
+        <v>-9.8623732582152623</v>
       </c>
       <c r="D29" s="12">
-        <v>19.549589267153891</v>
+        <v>19.433668751360539</v>
       </c>
       <c r="E29" s="12">
-        <v>-4.9159079387036231</v>
+        <v>-9.6964378132902151E-2</v>
       </c>
       <c r="F29" s="12">
-        <v>97.831444061113842</v>
+        <v>99.70530451866405</v>
       </c>
       <c r="G29" s="12">
-        <v>1.9714144898965009</v>
+        <v>0.29469548133595291</v>
       </c>
       <c r="H29" s="12">
-        <v>0.19714144898965011</v>
+        <v>0</v>
       </c>
       <c r="I29" s="12">
         <v>0</v>
       </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="12">
-        <v>11.01517191889878</v>
+        <v>6.9056200963916172</v>
       </c>
       <c r="C30" s="12">
-        <v>-2.675730011025713</v>
+        <v>-3.7551298277952609</v>
       </c>
       <c r="D30" s="12">
-        <v>21.836149426230762</v>
+        <v>20.642762717861949</v>
       </c>
       <c r="E30" s="12">
-        <v>-5.2780451713650578</v>
+        <v>-1.0377601068771209</v>
       </c>
       <c r="F30" s="12">
-        <v>99.687481055117971</v>
+        <v>99.937727871744883</v>
       </c>
       <c r="G30" s="12">
-        <v>0.31251894488202803</v>
+        <v>6.2272128255116153E-2</v>
       </c>
       <c r="H30" s="12">
         <v>0</v>
@@ -1869,230 +1850,230 @@
       <c r="I30" s="12">
         <v>0</v>
       </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="12">
-        <v>19.790333501664591</v>
+        <v>8.6735611621103956</v>
       </c>
       <c r="C31" s="12">
-        <v>1.6977990543545891</v>
+        <v>-9.3520549229751637</v>
       </c>
       <c r="D31" s="12">
-        <v>27.345910483793261</v>
+        <v>23.158832252616492</v>
       </c>
       <c r="E31" s="12">
-        <v>2.508432396870107</v>
+        <v>-3.4953435433187332</v>
       </c>
       <c r="F31" s="12">
-        <v>97.588402326258773</v>
+        <v>99.230142766641251</v>
       </c>
       <c r="G31" s="12">
-        <v>2.2847547406409059</v>
+        <v>0.74170119420392622</v>
       </c>
       <c r="H31" s="12">
-        <v>0.1125630020191847</v>
+        <v>2.8156039154821479E-2</v>
       </c>
       <c r="I31" s="12">
-        <v>1.4279931081127781E-2</v>
-      </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="12">
-        <v>17.150378852685339</v>
+        <v>10.871892675503121</v>
       </c>
       <c r="C32" s="12">
-        <v>-2.804022050397692</v>
+        <v>-5.3700606289479929</v>
       </c>
       <c r="D32" s="12">
-        <v>36.234597292286658</v>
+        <v>34.486609583539462</v>
       </c>
       <c r="E32" s="12">
-        <v>-4.0451693794787689</v>
+        <v>-1.344746411247892</v>
       </c>
       <c r="F32" s="12">
-        <v>97.911907982515174</v>
+        <v>98.515759737331663</v>
       </c>
       <c r="G32" s="12">
-        <v>2.0052312231392961</v>
+        <v>1.3187904255326079</v>
       </c>
       <c r="H32" s="12">
-        <v>8.2860794343767225E-2</v>
+        <v>0.16544983713398881</v>
       </c>
       <c r="I32" s="12">
         <v>0</v>
       </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="12">
-        <v>21.287022946680452</v>
+        <v>14.30784990950915</v>
       </c>
       <c r="C33" s="12">
-        <v>-0.25672547249491262</v>
+        <v>-5.8066650494113166</v>
       </c>
       <c r="D33" s="12">
-        <v>41.736426148666183</v>
+        <v>35.498569617400513</v>
       </c>
       <c r="E33" s="12">
-        <v>0.37722915494552439</v>
+        <v>-2.7388915964110452</v>
       </c>
       <c r="F33" s="12">
-        <v>96.651144119283387</v>
+        <v>97.658450817484407</v>
       </c>
       <c r="G33" s="12">
-        <v>3.088815693729126</v>
+        <v>2.2211950839236261</v>
       </c>
       <c r="H33" s="12">
-        <v>0.2600401869863353</v>
+        <v>0.1203540985908241</v>
       </c>
       <c r="I33" s="12">
         <v>0</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="12">
-        <v>14.98440382471188</v>
+        <v>10.719961367959449</v>
       </c>
       <c r="C34" s="12">
-        <v>0.24990842728606499</v>
+        <v>-3.9700676820481151</v>
       </c>
       <c r="D34" s="12">
-        <v>25.643305550546959</v>
+        <v>20.918068939287</v>
       </c>
       <c r="E34" s="12">
-        <v>-1.2391673192796939</v>
+        <v>-3.6882500826820328</v>
       </c>
       <c r="F34" s="12">
-        <v>96.070387815750266</v>
+        <v>98.035979322761591</v>
       </c>
       <c r="G34" s="12">
-        <v>3.5675171837351178</v>
+        <v>1.8435841011243881</v>
       </c>
       <c r="H34" s="12">
-        <v>0.36209500051295079</v>
+        <v>0.1204365761131815</v>
       </c>
       <c r="I34" s="12">
-        <v>0.150872916880048</v>
-      </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
+        <v>3.0109144028295381E-2</v>
+      </c>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="12">
-        <v>19.893240623858201</v>
+        <v>12.3014974791332</v>
       </c>
       <c r="C35" s="12">
-        <v>-1.4222449805802679</v>
+        <v>-6.7772547846953497</v>
       </c>
       <c r="D35" s="12">
-        <v>34.972061562239958</v>
+        <v>31.108560871009342</v>
       </c>
       <c r="E35" s="12">
-        <v>-3.8092570788189928</v>
+        <v>-2.4076396675609542</v>
       </c>
       <c r="F35" s="12">
-        <v>96.407604883763682</v>
+        <v>97.510304712861711</v>
       </c>
       <c r="G35" s="12">
-        <v>3.3227829964223252</v>
+        <v>2.3490151882279471</v>
       </c>
       <c r="H35" s="12">
-        <v>0.26429054034540572</v>
+        <v>0.1406800989103334</v>
       </c>
       <c r="I35" s="12">
-        <v>5.3215794685823334E-3</v>
-      </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="12">
-        <v>25.6075209457378</v>
+        <v>16.321620169345159</v>
       </c>
       <c r="C36" s="12">
-        <v>6.131105098962129</v>
+        <v>-7.517996209579076</v>
       </c>
       <c r="D36" s="12">
-        <v>27.75541954188758</v>
+        <v>24.526032511063612</v>
       </c>
       <c r="E36" s="12">
-        <v>2.2429483563655528</v>
+        <v>-2.5501102287615049</v>
       </c>
       <c r="F36" s="12">
-        <v>95.939479428008937</v>
+        <v>97.915671519797129</v>
       </c>
       <c r="G36" s="12">
-        <v>3.649692956435016</v>
+        <v>1.996149186104675</v>
       </c>
       <c r="H36" s="12">
-        <v>0.35992027859586312</v>
+        <v>8.8179294098194361E-2</v>
       </c>
       <c r="I36" s="12">
-        <v>5.0907336960178601E-2</v>
-      </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="12">
-        <v>13.072365373779039</v>
+        <v>11.50895404367253</v>
       </c>
       <c r="C37" s="12">
-        <v>-3.337354206980879</v>
+        <v>-4.8012776323131634</v>
       </c>
       <c r="D37" s="12">
-        <v>28.09477628349924</v>
+        <v>26.916092551921299</v>
       </c>
       <c r="E37" s="12">
-        <v>-6.1957669813434064</v>
+        <v>-5.0561453273505661</v>
       </c>
       <c r="F37" s="12">
-        <v>99.855881333684067</v>
+        <v>99.971300397846321</v>
       </c>
       <c r="G37" s="12">
-        <v>0.14411866631592271</v>
+        <v>2.8699602153663271E-2</v>
       </c>
       <c r="H37" s="12">
         <v>0</v>
@@ -2100,543 +2081,541 @@
       <c r="I37" s="12">
         <v>0</v>
       </c>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="12">
-        <v>19.190548113418021</v>
+        <v>3.18376076533275</v>
       </c>
       <c r="C38" s="12">
-        <v>4.7580757946972083</v>
+        <v>-13.43912536815767</v>
       </c>
       <c r="D38" s="12">
-        <v>24.517149306049159</v>
+        <v>14.561704671405449</v>
       </c>
       <c r="E38" s="12">
-        <v>0.1001429419474603</v>
+        <v>-7.9875034035975272</v>
       </c>
       <c r="F38" s="12">
-        <v>97.878360154890814</v>
+        <v>99.329101919290508</v>
       </c>
       <c r="G38" s="12">
-        <v>1.9622043704990619</v>
+        <v>0.63572164902916406</v>
       </c>
       <c r="H38" s="12">
-        <v>0.1249654563478462</v>
+        <v>3.5176431680302378E-2</v>
       </c>
       <c r="I38" s="12">
-        <v>3.4470018262233372E-2</v>
-      </c>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="12">
-        <v>9.0181415869259851</v>
+        <v>6.4652926431870661</v>
       </c>
       <c r="C39" s="12">
-        <v>-3.6608737353920309</v>
+        <v>-2.7401264464920412</v>
       </c>
       <c r="D39" s="12">
-        <v>17.05912921651927</v>
+        <v>15.54591315923521</v>
       </c>
       <c r="E39" s="12">
-        <v>-0.59315098181314507</v>
+        <v>-0.87126641881089728</v>
       </c>
       <c r="F39" s="12">
-        <v>99.818427405448233</v>
+        <v>99.896539516890826</v>
       </c>
       <c r="G39" s="12">
-        <v>0.16656000774394439</v>
+        <v>8.8503890963069598E-2</v>
       </c>
       <c r="H39" s="12">
-        <v>1.501258680781976E-2</v>
+        <v>1.4956592146102289E-2</v>
       </c>
       <c r="I39" s="12">
         <v>0</v>
       </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="12">
-        <v>17.134542938005321</v>
+        <v>8.255594522377967</v>
       </c>
       <c r="C40" s="12">
-        <v>0.43373289500204171</v>
+        <v>-7.5810876501796836</v>
       </c>
       <c r="D40" s="12">
-        <v>28.36290345830087</v>
+        <v>24.620861497180819</v>
       </c>
       <c r="E40" s="12">
-        <v>-0.969131376369194</v>
+        <v>-2.917060288057673</v>
       </c>
       <c r="F40" s="12">
-        <v>97.171515327900323</v>
+        <v>97.936170891670912</v>
       </c>
       <c r="G40" s="12">
-        <v>2.185051707083324</v>
+        <v>1.6010185036734741</v>
       </c>
       <c r="H40" s="12">
-        <v>0.64343296501556146</v>
+        <v>0.45441382129300412</v>
       </c>
       <c r="I40" s="12">
-        <v>2.727505464784195E-2</v>
-      </c>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
+        <v>8.3967833618066191E-3</v>
+      </c>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="12">
-        <v>11.08536050245891</v>
+        <v>2.5279225732600281</v>
       </c>
       <c r="C41" s="12">
-        <v>0.52742972764806062</v>
+        <v>-7.7022958445344711</v>
       </c>
       <c r="D41" s="12">
-        <v>29.502941184642172</v>
+        <v>25.574287402934971</v>
       </c>
       <c r="E41" s="12">
-        <v>-2.044868676169691</v>
+        <v>-3.0311365704076958</v>
       </c>
       <c r="F41" s="12">
-        <v>98.703009159495764</v>
+        <v>98.980235330094544</v>
       </c>
       <c r="G41" s="12">
-        <v>1.263918869931077</v>
+        <v>1.016386867428178</v>
       </c>
       <c r="H41" s="12">
-        <v>3.0036290647196422E-2</v>
+        <v>3.377802475358958E-3</v>
       </c>
       <c r="I41" s="12">
-        <v>6.4107562646850344E-3</v>
-      </c>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="12">
-        <v>26.76</v>
+        <v>18.670000000000002</v>
       </c>
       <c r="C42" s="12">
-        <v>3.91</v>
+        <v>-6.38</v>
       </c>
       <c r="D42" s="12">
-        <v>47.93</v>
+        <v>41.82</v>
       </c>
       <c r="E42" s="12">
-        <v>-0.28999999999999998</v>
+        <v>-4.1300000000000008</v>
       </c>
       <c r="F42" s="12">
-        <v>99.31</v>
+        <v>99.9</v>
       </c>
       <c r="G42" s="12">
-        <v>0.69</v>
+        <v>0.05</v>
       </c>
       <c r="H42" s="12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I42" s="12">
         <v>0</v>
       </c>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="12">
-        <v>21.176553574217451</v>
+        <v>12.650708767082479</v>
       </c>
       <c r="C43" s="12">
-        <v>5.0697056690770914</v>
+        <v>-6.9852764121239712</v>
       </c>
       <c r="D43" s="12">
-        <v>25.744410370361731</v>
+        <v>22.065817331198989</v>
       </c>
       <c r="E43" s="12">
-        <v>2.5004611695578158</v>
+        <v>-2.9315047156404228</v>
       </c>
       <c r="F43" s="12">
-        <v>98.41084987203287</v>
+        <v>98.919212464321191</v>
       </c>
       <c r="G43" s="12">
-        <v>1.5245535834434081</v>
+        <v>1.05311097518894</v>
       </c>
       <c r="H43" s="12">
-        <v>1.845615557816568E-2</v>
+        <v>1.845104032646985E-2</v>
       </c>
       <c r="I43" s="12">
-        <v>4.614038894541421E-2</v>
-      </c>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
+        <v>9.2255201632349265E-3</v>
+      </c>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="12">
-        <v>16.066834411172572</v>
+        <v>15.14691447174677</v>
       </c>
       <c r="C44" s="12">
-        <v>-2.2901025703690689</v>
+        <v>-2.9576439462865989</v>
       </c>
       <c r="D44" s="12">
-        <v>28.74582341522736</v>
+        <v>28.089101965458891</v>
       </c>
       <c r="E44" s="12">
-        <v>-6.0908570609596602</v>
+        <v>-2.7942062501151299</v>
       </c>
       <c r="F44" s="12">
-        <v>99.394748507345312</v>
+        <v>99.656266261057525</v>
       </c>
       <c r="G44" s="12">
-        <v>0.56742327436377749</v>
+        <v>0.2673484636219296</v>
       </c>
       <c r="H44" s="12">
-        <v>3.7828218290918501E-2</v>
+        <v>7.638527532055131E-2</v>
       </c>
       <c r="I44" s="12">
         <v>0</v>
       </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="12">
-        <v>13.324422013013461</v>
+        <v>5.2245631761300313</v>
       </c>
       <c r="C45" s="12">
-        <v>3.5260453495187289</v>
+        <v>-7.095491706302826</v>
       </c>
       <c r="D45" s="12">
-        <v>21.29846246566116</v>
+        <v>18.163220084547511</v>
       </c>
       <c r="E45" s="12">
-        <v>-7.0576559893713542</v>
+        <v>-2.5799938160833218</v>
       </c>
       <c r="F45" s="12">
-        <v>98.068259660636357</v>
+        <v>98.845962569626977</v>
       </c>
       <c r="G45" s="12">
-        <v>1.8004456933812929</v>
+        <v>1.1122420703002149</v>
       </c>
       <c r="H45" s="12">
-        <v>0.1134733048242598</v>
+        <v>4.1795360072101967E-2</v>
       </c>
       <c r="I45" s="12">
-        <v>2.3816771011472199E-2</v>
-      </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="12">
-        <v>12.96363780499003</v>
+        <v>9.1627248305327171</v>
       </c>
       <c r="C46" s="12">
-        <v>-1.189069065092591</v>
+        <v>-3.7628448398447278</v>
       </c>
       <c r="D46" s="12">
-        <v>24.686205230632229</v>
+        <v>22.03128855573032</v>
       </c>
       <c r="E46" s="12">
-        <v>-1.9945100378127381</v>
+        <v>-2.0356957808843381</v>
       </c>
       <c r="F46" s="12">
-        <v>97.618358077669072</v>
+        <v>98.227619154892523</v>
       </c>
       <c r="G46" s="12">
-        <v>2.218655237813139</v>
+        <v>1.673031258282206</v>
       </c>
       <c r="H46" s="12">
-        <v>0.12745252647818159</v>
+        <v>8.6470882652086828E-2</v>
       </c>
       <c r="I46" s="12">
-        <v>3.7230293341795347E-2</v>
-      </c>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
+        <v>1.287870417287473E-2</v>
+      </c>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="12">
-        <v>6.7568106279577389</v>
+        <v>-0.90644232840973316</v>
       </c>
       <c r="C47" s="12">
-        <v>2.4514</v>
+        <v>-7.1781999999999986</v>
       </c>
       <c r="D47" s="12">
-        <v>23.8707843865533</v>
+        <v>21.453116171483298</v>
       </c>
       <c r="E47" s="12">
-        <v>-1.1303000000000001</v>
+        <v>-1.9517</v>
       </c>
       <c r="F47" s="12">
-        <v>97.443049744304005</v>
+        <v>98.084942084942</v>
       </c>
       <c r="G47" s="12">
-        <v>2.494963582829</v>
+        <v>1.915057915057</v>
       </c>
       <c r="H47" s="12">
-        <v>6.1986672865000002E-2</v>
+        <v>0</v>
       </c>
       <c r="I47" s="12">
         <v>0</v>
       </c>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="12">
-        <v>11.39028202682538</v>
+        <v>6.3189959636770139</v>
       </c>
       <c r="C48" s="12">
-        <v>-4.2539130245563683</v>
+        <v>-4.5397777959155912</v>
       </c>
       <c r="D48" s="12">
-        <v>31.87218030435902</v>
+        <v>29.317307192823741</v>
       </c>
       <c r="E48" s="12">
-        <v>-4.5577586224288948</v>
+        <v>-1.9387654234027629</v>
       </c>
       <c r="F48" s="12">
-        <v>99.685983428055721</v>
+        <v>99.683802898940755</v>
       </c>
       <c r="G48" s="12">
-        <v>0.2360873492982202</v>
+        <v>0.31619710105829629</v>
       </c>
       <c r="H48" s="12">
-        <v>7.7929222645116508E-2</v>
+        <v>0</v>
       </c>
       <c r="I48" s="12">
         <v>0</v>
       </c>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="12">
-        <v>15.72716715925463</v>
+        <v>5.7522667065288022</v>
       </c>
       <c r="C49" s="12">
-        <v>5.2717665888003822</v>
+        <v>-8.5945991401634565</v>
       </c>
       <c r="D49" s="12">
-        <v>30.574817054316672</v>
+        <v>27.21802951747199</v>
       </c>
       <c r="E49" s="12">
-        <v>-0.58983587656675485</v>
+        <v>-2.5870761390724031</v>
       </c>
       <c r="F49" s="12">
-        <v>98.838115574993623</v>
+        <v>99.221972154419575</v>
       </c>
       <c r="G49" s="12">
-        <v>1.112889511818911</v>
+        <v>0.76890570203760578</v>
       </c>
       <c r="H49" s="12">
-        <v>4.4715368539024219E-2</v>
+        <v>9.122143542130097E-3</v>
       </c>
       <c r="I49" s="12">
-        <v>4.2795446477379394E-3</v>
-      </c>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="12">
-        <v>15.97831960138125</v>
+        <v>8.7869629100618774</v>
       </c>
       <c r="C50" s="12">
-        <v>1.608575331939744</v>
+        <v>-6.2021649110713604</v>
       </c>
       <c r="D50" s="12">
-        <v>29.524227265377149</v>
+        <v>26.65332070116186</v>
       </c>
       <c r="E50" s="12">
-        <v>-0.40939695998318121</v>
+        <v>-2.2247428022262912</v>
       </c>
       <c r="F50" s="12">
-        <v>95.526402255548447</v>
+        <v>96.392554787167555</v>
       </c>
       <c r="G50" s="12">
-        <v>3.4555974853845828</v>
+        <v>2.7595123085047382</v>
       </c>
       <c r="H50" s="12">
-        <v>1.0180002590651751</v>
+        <v>0.84793290432681012</v>
       </c>
       <c r="I50" s="12">
-        <v>1.4287111234882421E-2</v>
-      </c>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
+        <v>9.5306040726377481E-3</v>
+      </c>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B51" s="12">
-        <v>8.9210588519757561</v>
+        <v>-2.363734194493845</v>
       </c>
       <c r="C51" s="12">
-        <v>0.76943681326814417</v>
+        <v>-11.664500592577729</v>
       </c>
       <c r="D51" s="12">
-        <v>19.82648206984015</v>
+        <v>14.982356010002951</v>
       </c>
       <c r="E51" s="12">
-        <v>-1.7788676328453781</v>
+        <v>-3.6404574839020412</v>
       </c>
       <c r="F51" s="12">
-        <v>97.650131025142571</v>
+        <v>99.038697556293243</v>
       </c>
       <c r="G51" s="12">
-        <v>2.090158095806363</v>
+        <v>0.93807738421366427</v>
       </c>
       <c r="H51" s="12">
-        <v>0.25971087905054641</v>
+        <v>2.3225059492549781E-2</v>
       </c>
       <c r="I51" s="12">
         <v>0</v>
       </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B52" s="12">
-        <v>15.951380945131611</v>
+        <v>7.5381170283099976</v>
       </c>
       <c r="C52" s="12">
-        <v>2.7346205003349011</v>
+        <v>-7.256538084944661</v>
       </c>
       <c r="D52" s="12">
-        <v>36.685601169301322</v>
+        <v>30.724594915201159</v>
       </c>
       <c r="E52" s="12">
-        <v>-2.405328516290496</v>
+        <v>-4.3610027965361402</v>
       </c>
       <c r="F52" s="12">
-        <v>94.63933838532887</v>
+        <v>97.433590986097116</v>
       </c>
       <c r="G52" s="12">
-        <v>5.1343745887243193</v>
+        <v>2.5508064478094949</v>
       </c>
       <c r="H52" s="12">
-        <v>0.13265101521020281</v>
+        <v>7.8012830466895212E-3</v>
       </c>
       <c r="I52" s="12">
-        <v>9.3636010736613734E-2</v>
-      </c>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
+        <v>7.8012830466895212E-3</v>
+      </c>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="12">
-        <v>8.1122259626078108</v>
+        <v>-4.8241982480456969E-2</v>
       </c>
       <c r="C53" s="12">
-        <v>-4.0715906619889886</v>
+        <v>-7.5481453391873394</v>
       </c>
       <c r="D53" s="12">
-        <v>14.054845156388531</v>
+        <v>10.79143472045045</v>
       </c>
       <c r="E53" s="12">
-        <v>-3.173803579740897</v>
+        <v>-2.8612641851938792</v>
       </c>
       <c r="F53" s="12">
-        <v>98.906644238856174</v>
+        <v>99.831791421362496</v>
       </c>
       <c r="G53" s="12">
-        <v>0.92514718250630779</v>
+        <v>0.16820857863751049</v>
       </c>
       <c r="H53" s="12">
         <v>0</v>
       </c>
       <c r="I53" s="12">
-        <v>0.16820857863751049</v>
-      </c>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -2644,95 +2623,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4268F092-1B35-3B41-A7DA-0ECD6522FFC4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="X73" sqref="X73"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E922D9-587A-2248-9CA1-A6E55F67A864}">
-  <dimension ref="A2:K5"/>
+  <dimension ref="A2:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
         <v>43911</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>43918</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>43925</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>43932</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>43939</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>43946</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>43953</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>43960</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>43967</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>43974</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="B5" s="3">
+      <c r="L4" s="5">
+        <v>43981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
         <v>0.42452508300000003</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.42994080000000001</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>0.42</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>0.41499999999999998</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>0.40200000000000002</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>0.39200000000000002</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>0.40899999999999997</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>0.373</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>0.39399999999999996</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <v>0.4</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.36099999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2740,7 +2727,5 @@
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>